--- a/Missing Values.xlsx
+++ b/Missing Values.xlsx
@@ -21,1714 +21,1714 @@
     <t>Missing Water Level</t>
   </si>
   <si>
-    <t>2020/4/29 0</t>
-  </si>
-  <si>
-    <t>2020/4/29 1</t>
-  </si>
-  <si>
-    <t>2020/4/29 2</t>
-  </si>
-  <si>
-    <t>2020/4/29 3</t>
-  </si>
-  <si>
-    <t>2020/4/29 4</t>
-  </si>
-  <si>
-    <t>2020/4/29 5</t>
-  </si>
-  <si>
-    <t>2020/4/29 6</t>
-  </si>
-  <si>
-    <t>2020/4/29 7</t>
-  </si>
-  <si>
-    <t>2020/4/29 8</t>
-  </si>
-  <si>
-    <t>2020/4/29 9</t>
-  </si>
-  <si>
-    <t>2020/5/3 5</t>
-  </si>
-  <si>
-    <t>2020/5/10 18</t>
-  </si>
-  <si>
-    <t>2020/5/12 19</t>
-  </si>
-  <si>
-    <t>2020/5/19 0</t>
-  </si>
-  <si>
-    <t>2020/5/19 1</t>
-  </si>
-  <si>
-    <t>2020/5/19 2</t>
-  </si>
-  <si>
-    <t>2020/5/19 3</t>
-  </si>
-  <si>
-    <t>2020/5/19 4</t>
-  </si>
-  <si>
-    <t>2020/5/19 5</t>
-  </si>
-  <si>
-    <t>2020/5/19 6</t>
-  </si>
-  <si>
-    <t>2020/5/19 7</t>
-  </si>
-  <si>
-    <t>2020/5/19 8</t>
-  </si>
-  <si>
-    <t>2020/5/19 9</t>
-  </si>
-  <si>
-    <t>2020/5/19 10</t>
-  </si>
-  <si>
-    <t>2020/5/27 4</t>
-  </si>
-  <si>
-    <t>2020/5/27 5</t>
-  </si>
-  <si>
-    <t>2020/5/27 6</t>
-  </si>
-  <si>
-    <t>2020/6/4 0</t>
-  </si>
-  <si>
-    <t>2020/6/4 1</t>
-  </si>
-  <si>
-    <t>2020/6/4 2</t>
-  </si>
-  <si>
-    <t>2020/6/4 3</t>
-  </si>
-  <si>
-    <t>2020/6/4 4</t>
-  </si>
-  <si>
-    <t>2020/6/4 5</t>
-  </si>
-  <si>
-    <t>2020/6/4 6</t>
-  </si>
-  <si>
-    <t>2020/6/4 7</t>
-  </si>
-  <si>
-    <t>2020/6/4 8</t>
-  </si>
-  <si>
-    <t>2020/6/4 9</t>
-  </si>
-  <si>
-    <t>2020/6/4 10</t>
-  </si>
-  <si>
-    <t>2020/6/4 11</t>
-  </si>
-  <si>
-    <t>2020/6/7 0</t>
-  </si>
-  <si>
-    <t>2020/6/8 1</t>
-  </si>
-  <si>
-    <t>2020/6/23 0</t>
-  </si>
-  <si>
-    <t>2020/6/23 1</t>
-  </si>
-  <si>
-    <t>2020/6/23 2</t>
-  </si>
-  <si>
-    <t>2020/6/23 3</t>
-  </si>
-  <si>
-    <t>2020/6/23 4</t>
-  </si>
-  <si>
-    <t>2020/6/23 5</t>
-  </si>
-  <si>
-    <t>2020/6/23 6</t>
-  </si>
-  <si>
-    <t>2020/6/23 7</t>
-  </si>
-  <si>
-    <t>2020/6/23 8</t>
-  </si>
-  <si>
-    <t>2020/6/23 9</t>
-  </si>
-  <si>
-    <t>2020/6/23 10</t>
-  </si>
-  <si>
-    <t>2020/6/23 11</t>
-  </si>
-  <si>
-    <t>2020/6/23 12</t>
-  </si>
-  <si>
-    <t>2020/6/23 13</t>
-  </si>
-  <si>
-    <t>2020/6/23 14</t>
-  </si>
-  <si>
-    <t>2020/7/6 0</t>
-  </si>
-  <si>
-    <t>2020/7/6 1</t>
-  </si>
-  <si>
-    <t>2020/7/6 2</t>
-  </si>
-  <si>
-    <t>2020/7/6 3</t>
-  </si>
-  <si>
-    <t>2020/7/6 4</t>
-  </si>
-  <si>
-    <t>2020/7/6 5</t>
-  </si>
-  <si>
-    <t>2020/7/6 6</t>
-  </si>
-  <si>
-    <t>2020/7/6 7</t>
-  </si>
-  <si>
-    <t>2020/7/6 8</t>
-  </si>
-  <si>
-    <t>2020/8/7 0</t>
-  </si>
-  <si>
-    <t>2020/8/7 1</t>
-  </si>
-  <si>
-    <t>2020/8/7 2</t>
-  </si>
-  <si>
-    <t>2020/8/7 3</t>
-  </si>
-  <si>
-    <t>2020/8/7 4</t>
-  </si>
-  <si>
-    <t>2020/8/7 5</t>
-  </si>
-  <si>
-    <t>2020/8/7 6</t>
-  </si>
-  <si>
-    <t>2020/8/7 7</t>
-  </si>
-  <si>
-    <t>2020/8/7 8</t>
-  </si>
-  <si>
-    <t>2020/8/7 9</t>
-  </si>
-  <si>
-    <t>2020/8/7 10</t>
-  </si>
-  <si>
-    <t>2020/8/7 11</t>
-  </si>
-  <si>
-    <t>2020/8/7 12</t>
-  </si>
-  <si>
-    <t>2020/8/7 13</t>
-  </si>
-  <si>
-    <t>2020/8/7 14</t>
-  </si>
-  <si>
-    <t>2020/8/7 15</t>
-  </si>
-  <si>
-    <t>2020/8/7 16</t>
-  </si>
-  <si>
-    <t>2020/8/17 20</t>
-  </si>
-  <si>
-    <t>2020/8/20 16</t>
-  </si>
-  <si>
-    <t>2020/8/20 17</t>
-  </si>
-  <si>
-    <t>2020/8/20 18</t>
-  </si>
-  <si>
-    <t>2020/9/2 0</t>
-  </si>
-  <si>
-    <t>2020/9/2 1</t>
-  </si>
-  <si>
-    <t>2020/9/2 2</t>
-  </si>
-  <si>
-    <t>2020/9/2 3</t>
-  </si>
-  <si>
-    <t>2020/9/2 4</t>
-  </si>
-  <si>
-    <t>2020/9/2 5</t>
-  </si>
-  <si>
-    <t>2020/9/2 6</t>
-  </si>
-  <si>
-    <t>2020/9/2 7</t>
-  </si>
-  <si>
-    <t>2020/9/2 8</t>
-  </si>
-  <si>
-    <t>2020/9/2 9</t>
-  </si>
-  <si>
-    <t>2020/9/2 10</t>
-  </si>
-  <si>
-    <t>2020/10/1 0</t>
-  </si>
-  <si>
-    <t>2020/10/1 1</t>
-  </si>
-  <si>
-    <t>2020/10/1 2</t>
-  </si>
-  <si>
-    <t>2020/10/1 3</t>
-  </si>
-  <si>
-    <t>2020/10/1 4</t>
-  </si>
-  <si>
-    <t>2020/10/1 5</t>
-  </si>
-  <si>
-    <t>2020/10/1 6</t>
-  </si>
-  <si>
-    <t>2020/10/1 7</t>
-  </si>
-  <si>
-    <t>2020/10/1 8</t>
-  </si>
-  <si>
-    <t>2020/10/1 9</t>
-  </si>
-  <si>
-    <t>2020/10/1 10</t>
-  </si>
-  <si>
-    <t>2020/10/1 11</t>
-  </si>
-  <si>
-    <t>2020/10/1 12</t>
-  </si>
-  <si>
-    <t>2020/10/1 13</t>
-  </si>
-  <si>
-    <t>2020/10/1 14</t>
-  </si>
-  <si>
-    <t>2020/10/6 18</t>
-  </si>
-  <si>
-    <t>2020/10/9 22</t>
-  </si>
-  <si>
-    <t>2020/10/10 0</t>
-  </si>
-  <si>
-    <t>2020/10/29 6</t>
-  </si>
-  <si>
-    <t>2020/11/6 13</t>
-  </si>
-  <si>
-    <t>2020/11/9 19</t>
-  </si>
-  <si>
-    <t>2020/11/17 2</t>
-  </si>
-  <si>
-    <t>2020/11/20 20</t>
-  </si>
-  <si>
-    <t>2020/11/21 20</t>
-  </si>
-  <si>
-    <t>2020/11/26 23</t>
-  </si>
-  <si>
-    <t>2020/12/2 19</t>
-  </si>
-  <si>
-    <t>2020/12/4 22</t>
-  </si>
-  <si>
-    <t>2020/12/10 18</t>
-  </si>
-  <si>
-    <t>2020/12/11 14</t>
-  </si>
-  <si>
-    <t>2020/12/18 9</t>
-  </si>
-  <si>
-    <t>2020/12/18 11</t>
-  </si>
-  <si>
-    <t>2020/12/18 13</t>
-  </si>
-  <si>
-    <t>2020/12/22 4</t>
-  </si>
-  <si>
-    <t>2020/12/25 10</t>
-  </si>
-  <si>
-    <t>2020/12/27 20</t>
-  </si>
-  <si>
-    <t>2020/12/28 8</t>
-  </si>
-  <si>
-    <t>2020/12/29 22</t>
-  </si>
-  <si>
-    <t>2020/12/30 22</t>
-  </si>
-  <si>
-    <t>2020/12/31 8</t>
-  </si>
-  <si>
-    <t>2021/1/1 0</t>
-  </si>
-  <si>
-    <t>2021/1/1 1</t>
-  </si>
-  <si>
-    <t>2021/1/1 2</t>
-  </si>
-  <si>
-    <t>2021/1/1 3</t>
-  </si>
-  <si>
-    <t>2021/1/1 4</t>
-  </si>
-  <si>
-    <t>2021/1/1 5</t>
-  </si>
-  <si>
-    <t>2021/1/1 6</t>
-  </si>
-  <si>
-    <t>2021/1/1 7</t>
-  </si>
-  <si>
-    <t>2021/1/1 8</t>
-  </si>
-  <si>
-    <t>2021/1/1 9</t>
-  </si>
-  <si>
-    <t>2021/1/1 10</t>
-  </si>
-  <si>
-    <t>2021/1/1 11</t>
-  </si>
-  <si>
-    <t>2021/1/1 12</t>
-  </si>
-  <si>
-    <t>2021/1/1 13</t>
-  </si>
-  <si>
-    <t>2021/1/1 14</t>
-  </si>
-  <si>
-    <t>2021/1/1 15</t>
-  </si>
-  <si>
-    <t>2021/1/1 16</t>
-  </si>
-  <si>
-    <t>2021/1/2 14</t>
-  </si>
-  <si>
-    <t>2021/1/9 7</t>
-  </si>
-  <si>
-    <t>2021/1/10 7</t>
-  </si>
-  <si>
-    <t>2021/1/12 13</t>
-  </si>
-  <si>
-    <t>2021/1/13 1</t>
-  </si>
-  <si>
-    <t>2021/1/13 8</t>
-  </si>
-  <si>
-    <t>2021/1/13 9</t>
-  </si>
-  <si>
-    <t>2021/1/13 13</t>
-  </si>
-  <si>
-    <t>2021/1/13 15</t>
-  </si>
-  <si>
-    <t>2021/1/14 15</t>
-  </si>
-  <si>
-    <t>2021/1/15 1</t>
-  </si>
-  <si>
-    <t>2021/1/19 18</t>
-  </si>
-  <si>
-    <t>2021/1/20 6</t>
-  </si>
-  <si>
-    <t>2021/1/20 18</t>
-  </si>
-  <si>
-    <t>2021/1/23 12</t>
-  </si>
-  <si>
-    <t>2021/1/24 14</t>
-  </si>
-  <si>
-    <t>2021/1/30 4</t>
-  </si>
-  <si>
-    <t>2021/1/30 5</t>
-  </si>
-  <si>
-    <t>2021/1/30 6</t>
-  </si>
-  <si>
-    <t>2021/1/30 7</t>
-  </si>
-  <si>
-    <t>2021/1/30 8</t>
-  </si>
-  <si>
-    <t>2021/1/30 9</t>
-  </si>
-  <si>
-    <t>2021/1/30 10</t>
-  </si>
-  <si>
-    <t>2021/1/30 11</t>
-  </si>
-  <si>
-    <t>2021/1/30 12</t>
-  </si>
-  <si>
-    <t>2021/1/30 13</t>
-  </si>
-  <si>
-    <t>2021/1/30 14</t>
-  </si>
-  <si>
-    <t>2021/1/30 15</t>
-  </si>
-  <si>
-    <t>2021/1/30 16</t>
-  </si>
-  <si>
-    <t>2021/1/30 17</t>
-  </si>
-  <si>
-    <t>2021/1/30 18</t>
-  </si>
-  <si>
-    <t>2021/1/30 19</t>
-  </si>
-  <si>
-    <t>2021/1/30 20</t>
-  </si>
-  <si>
-    <t>2021/1/30 21</t>
-  </si>
-  <si>
-    <t>2021/1/30 22</t>
-  </si>
-  <si>
-    <t>2021/1/30 23</t>
-  </si>
-  <si>
-    <t>2021/1/31 0</t>
-  </si>
-  <si>
-    <t>2021/1/31 1</t>
-  </si>
-  <si>
-    <t>2021/1/31 2</t>
-  </si>
-  <si>
-    <t>2021/1/31 3</t>
-  </si>
-  <si>
-    <t>2021/1/31 4</t>
-  </si>
-  <si>
-    <t>2021/1/31 5</t>
-  </si>
-  <si>
-    <t>2021/1/31 6</t>
-  </si>
-  <si>
-    <t>2021/1/31 7</t>
-  </si>
-  <si>
-    <t>2021/1/31 8</t>
-  </si>
-  <si>
-    <t>2021/1/31 9</t>
-  </si>
-  <si>
-    <t>2021/2/1 7</t>
-  </si>
-  <si>
-    <t>2021/2/3 9</t>
-  </si>
-  <si>
-    <t>2021/2/3 11</t>
-  </si>
-  <si>
-    <t>2021/2/10 18</t>
-  </si>
-  <si>
-    <t>2021/2/11 6</t>
-  </si>
-  <si>
-    <t>2021/2/12 6</t>
-  </si>
-  <si>
-    <t>2021/2/12 18</t>
-  </si>
-  <si>
-    <t>2021/2/12 20</t>
-  </si>
-  <si>
-    <t>2021/2/13 8</t>
-  </si>
-  <si>
-    <t>2021/2/13 20</t>
-  </si>
-  <si>
-    <t>2021/2/14 10</t>
-  </si>
-  <si>
-    <t>2021/2/15 0</t>
-  </si>
-  <si>
-    <t>2021/2/21 3</t>
-  </si>
-  <si>
-    <t>2021/2/22 17</t>
-  </si>
-  <si>
-    <t>2021/2/24 7</t>
-  </si>
-  <si>
-    <t>2021/2/24 9</t>
-  </si>
-  <si>
-    <t>2021/2/24 19</t>
-  </si>
-  <si>
-    <t>2021/2/24 21</t>
-  </si>
-  <si>
-    <t>2021/2/25 9</t>
-  </si>
-  <si>
-    <t>2021/3/5 2</t>
-  </si>
-  <si>
-    <t>2021/3/6 6</t>
-  </si>
-  <si>
-    <t>2021/3/7 20</t>
-  </si>
-  <si>
-    <t>2021/3/14 13</t>
-  </si>
-  <si>
-    <t>2021/3/15 1</t>
-  </si>
-  <si>
-    <t>2021/3/15 13</t>
-  </si>
-  <si>
-    <t>2021/3/16 3</t>
-  </si>
-  <si>
-    <t>2021/3/16 15</t>
-  </si>
-  <si>
-    <t>2021/3/17 5</t>
-  </si>
-  <si>
-    <t>2021/3/29 8</t>
-  </si>
-  <si>
-    <t>2021/4/1 0</t>
-  </si>
-  <si>
-    <t>2021/4/1 1</t>
-  </si>
-  <si>
-    <t>2021/4/1 2</t>
-  </si>
-  <si>
-    <t>2021/4/1 3</t>
-  </si>
-  <si>
-    <t>2021/4/1 4</t>
-  </si>
-  <si>
-    <t>2021/4/1 5</t>
-  </si>
-  <si>
-    <t>2021/4/1 6</t>
-  </si>
-  <si>
-    <t>2021/4/1 7</t>
-  </si>
-  <si>
-    <t>2021/4/1 8</t>
-  </si>
-  <si>
-    <t>2021/4/1 9</t>
-  </si>
-  <si>
-    <t>2021/4/1 10</t>
-  </si>
-  <si>
-    <t>2021/4/8 5</t>
-  </si>
-  <si>
-    <t>2021/4/8 15</t>
-  </si>
-  <si>
-    <t>2021/4/18 2</t>
-  </si>
-  <si>
-    <t>2021/4/19 16</t>
-  </si>
-  <si>
-    <t>2021/4/20 18</t>
-  </si>
-  <si>
-    <t>2021/4/28 11</t>
-  </si>
-  <si>
-    <t>2021/4/30 3</t>
-  </si>
-  <si>
-    <t>2021/5/7 20</t>
-  </si>
-  <si>
-    <t>2021/5/7 22</t>
-  </si>
-  <si>
-    <t>2021/5/10 12</t>
-  </si>
-  <si>
-    <t>2021/5/11 16</t>
-  </si>
-  <si>
-    <t>2021/5/17 19</t>
-  </si>
-  <si>
-    <t>2021/5/18 7</t>
-  </si>
-  <si>
-    <t>2021/5/18 9</t>
-  </si>
-  <si>
-    <t>2021/5/18 14</t>
-  </si>
-  <si>
-    <t>2021/5/18 15</t>
-  </si>
-  <si>
-    <t>2021/5/18 16</t>
-  </si>
-  <si>
-    <t>2021/5/18 17</t>
-  </si>
-  <si>
-    <t>2021/5/18 18</t>
-  </si>
-  <si>
-    <t>2021/5/18 19</t>
-  </si>
-  <si>
-    <t>2021/5/18 20</t>
-  </si>
-  <si>
-    <t>2021/5/18 21</t>
-  </si>
-  <si>
-    <t>2021/5/18 22</t>
-  </si>
-  <si>
-    <t>2021/5/18 23</t>
-  </si>
-  <si>
-    <t>2021/5/19 0</t>
+    <t>2020/4/29 0:00:00</t>
+  </si>
+  <si>
+    <t>2020/4/29 1:00:00</t>
+  </si>
+  <si>
+    <t>2020/4/29 2:00:00</t>
+  </si>
+  <si>
+    <t>2020/4/29 3:00:00</t>
+  </si>
+  <si>
+    <t>2020/4/29 4:00:00</t>
+  </si>
+  <si>
+    <t>2020/4/29 5:00:00</t>
+  </si>
+  <si>
+    <t>2020/4/29 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/4/29 7:00:00</t>
+  </si>
+  <si>
+    <t>2020/4/29 8:00:00</t>
+  </si>
+  <si>
+    <t>2020/4/29 9:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 5:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/10 18:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/12 19:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/19 0:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/19 1:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/19 2:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/19 3:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/19 4:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/19 5:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/19 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/19 7:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/19 8:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/19 9:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/19 10:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/27 4:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/27 5:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/27 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/4 0:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/4 1:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/4 2:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/4 3:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/4 4:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/4 5:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/4 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/4 7:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/4 8:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/4 9:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/4 10:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/4 11:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/7 0:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/8 1:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 0:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 1:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 2:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 3:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 4:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 5:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 7:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 8:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 9:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 10:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 11:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 12:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 13:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/23 14:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/6 0:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/6 1:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/6 2:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/6 3:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/6 4:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/6 5:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/6 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/6 7:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/6 8:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 0:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 1:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 2:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 3:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 4:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 5:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 7:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 8:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 9:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 10:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 11:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 12:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 13:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 14:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 15:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/7 16:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/17 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/20 16:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/20 17:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/20 18:00:00</t>
+  </si>
+  <si>
+    <t>2020/9/2 0:00:00</t>
+  </si>
+  <si>
+    <t>2020/9/2 1:00:00</t>
+  </si>
+  <si>
+    <t>2020/9/2 2:00:00</t>
+  </si>
+  <si>
+    <t>2020/9/2 3:00:00</t>
+  </si>
+  <si>
+    <t>2020/9/2 4:00:00</t>
+  </si>
+  <si>
+    <t>2020/9/2 5:00:00</t>
+  </si>
+  <si>
+    <t>2020/9/2 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/9/2 7:00:00</t>
+  </si>
+  <si>
+    <t>2020/9/2 8:00:00</t>
+  </si>
+  <si>
+    <t>2020/9/2 9:00:00</t>
+  </si>
+  <si>
+    <t>2020/9/2 10:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 0:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 1:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 2:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 3:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 4:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 5:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 7:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 8:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 9:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 10:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 11:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 12:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 13:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/1 14:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/6 18:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/9 22:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/10 0:00:00</t>
+  </si>
+  <si>
+    <t>2020/10/29 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/11/6 13:00:00</t>
+  </si>
+  <si>
+    <t>2020/11/9 19:00:00</t>
+  </si>
+  <si>
+    <t>2020/11/17 2:00:00</t>
+  </si>
+  <si>
+    <t>2020/11/20 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/11/21 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/11/26 23:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/2 19:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/4 22:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/10 18:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/11 14:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/18 9:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/18 11:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/18 13:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/22 4:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/25 10:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/27 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/28 8:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/29 22:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/30 22:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/31 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 0:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 1:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 2:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 3:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 4:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 10:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 11:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 12:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 13:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 14:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 15:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/1 16:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/2 14:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/9 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/10 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/12 13:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/13 1:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/13 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/13 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/13 13:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/13 15:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/14 15:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/15 1:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/19 18:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 18:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 12:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 14:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 4:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 10:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 11:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 12:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 13:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 14:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 15:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 16:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 17:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 18:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 19:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 20:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 21:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 22:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/30 23:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/31 0:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/31 1:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/31 2:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/31 3:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/31 4:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/31 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/31 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/31 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/31 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/31 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/1 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 11:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/10 18:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/11 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/12 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/12 18:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/12 20:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/13 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/13 20:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/14 10:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/15 0:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/21 3:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/22 17:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/24 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/24 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/24 19:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/24 21:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/25 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/3/5 2:00:00</t>
+  </si>
+  <si>
+    <t>2021/3/6 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/3/7 20:00:00</t>
+  </si>
+  <si>
+    <t>2021/3/14 13:00:00</t>
+  </si>
+  <si>
+    <t>2021/3/15 1:00:00</t>
+  </si>
+  <si>
+    <t>2021/3/15 13:00:00</t>
+  </si>
+  <si>
+    <t>2021/3/16 3:00:00</t>
+  </si>
+  <si>
+    <t>2021/3/16 15:00:00</t>
+  </si>
+  <si>
+    <t>2021/3/17 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/3/29 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/1 0:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/1 1:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/1 2:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/1 3:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/1 4:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/1 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/1 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/1 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/1 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/1 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/1 10:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/8 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/8 15:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/18 2:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/19 16:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/20 18:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/28 11:00:00</t>
+  </si>
+  <si>
+    <t>2021/4/30 3:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/7 20:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/7 22:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/10 12:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/11 16:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/17 19:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/18 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/18 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/18 14:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/18 15:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/18 16:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/18 17:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/18 18:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/18 19:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/18 20:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/18 21:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/18 22:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/18 23:00:00</t>
+  </si>
+  <si>
+    <t>2021/5/19 0:00:00</t>
   </si>
   <si>
     <t>Missing RG0</t>
   </si>
   <si>
-    <t>2020/5/20 0</t>
-  </si>
-  <si>
-    <t>2020/5/20 1</t>
-  </si>
-  <si>
-    <t>2020/5/20 2</t>
-  </si>
-  <si>
-    <t>2020/5/20 3</t>
-  </si>
-  <si>
-    <t>2020/5/20 4</t>
-  </si>
-  <si>
-    <t>2020/5/20 5</t>
-  </si>
-  <si>
-    <t>2020/5/20 6</t>
-  </si>
-  <si>
-    <t>2020/5/20 7</t>
-  </si>
-  <si>
-    <t>2020/5/20 8</t>
-  </si>
-  <si>
-    <t>2020/5/20 9</t>
+    <t>2020/5/20 0:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/20 1:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/20 2:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/20 3:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/20 4:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/20 5:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/20 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/20 7:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/20 8:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/20 9:00:00</t>
   </si>
   <si>
     <t>Missing RG1</t>
   </si>
   <si>
-    <t>2020/5/3 6</t>
-  </si>
-  <si>
-    <t>2020/5/3 7</t>
-  </si>
-  <si>
-    <t>2020/5/3 8</t>
-  </si>
-  <si>
-    <t>2020/5/3 9</t>
-  </si>
-  <si>
-    <t>2020/5/3 10</t>
-  </si>
-  <si>
-    <t>2020/5/3 11</t>
-  </si>
-  <si>
-    <t>2020/5/3 12</t>
-  </si>
-  <si>
-    <t>2020/5/3 13</t>
-  </si>
-  <si>
-    <t>2020/5/3 15</t>
-  </si>
-  <si>
-    <t>2020/5/3 16</t>
-  </si>
-  <si>
-    <t>2020/5/3 17</t>
-  </si>
-  <si>
-    <t>2020/5/3 18</t>
-  </si>
-  <si>
-    <t>2020/5/3 19</t>
-  </si>
-  <si>
-    <t>2020/5/3 20</t>
-  </si>
-  <si>
-    <t>2020/5/3 21</t>
-  </si>
-  <si>
-    <t>2020/5/3 22</t>
-  </si>
-  <si>
-    <t>2020/5/3 23</t>
-  </si>
-  <si>
-    <t>2020/5/4 0</t>
-  </si>
-  <si>
-    <t>2020/5/4 1</t>
-  </si>
-  <si>
-    <t>2020/5/4 2</t>
-  </si>
-  <si>
-    <t>2020/5/4 3</t>
-  </si>
-  <si>
-    <t>2020/5/4 14</t>
-  </si>
-  <si>
-    <t>2020/5/8 8</t>
-  </si>
-  <si>
-    <t>2020/5/8 9</t>
-  </si>
-  <si>
-    <t>2020/5/8 10</t>
-  </si>
-  <si>
-    <t>2020/5/8 11</t>
-  </si>
-  <si>
-    <t>2020/5/8 12</t>
-  </si>
-  <si>
-    <t>2020/5/8 13</t>
-  </si>
-  <si>
-    <t>2020/5/8 15</t>
-  </si>
-  <si>
-    <t>2020/5/8 16</t>
-  </si>
-  <si>
-    <t>2020/5/8 17</t>
-  </si>
-  <si>
-    <t>2020/5/8 18</t>
-  </si>
-  <si>
-    <t>2020/5/8 19</t>
-  </si>
-  <si>
-    <t>2020/5/8 20</t>
-  </si>
-  <si>
-    <t>2020/5/9 14</t>
-  </si>
-  <si>
-    <t>2020/5/11 11</t>
-  </si>
-  <si>
-    <t>2020/5/11 12</t>
-  </si>
-  <si>
-    <t>2020/5/11 13</t>
-  </si>
-  <si>
-    <t>2020/5/11 15</t>
-  </si>
-  <si>
-    <t>2020/5/11 16</t>
-  </si>
-  <si>
-    <t>2020/5/11 17</t>
-  </si>
-  <si>
-    <t>2020/5/11 18</t>
-  </si>
-  <si>
-    <t>2020/5/11 19</t>
-  </si>
-  <si>
-    <t>2020/5/11 20</t>
-  </si>
-  <si>
-    <t>2020/5/11 21</t>
-  </si>
-  <si>
-    <t>2020/5/12 14</t>
-  </si>
-  <si>
-    <t>2020/5/12 20</t>
-  </si>
-  <si>
-    <t>2020/5/15 18</t>
-  </si>
-  <si>
-    <t>2020/5/15 19</t>
-  </si>
-  <si>
-    <t>2020/5/16 16</t>
-  </si>
-  <si>
-    <t>2020/5/16 17</t>
-  </si>
-  <si>
-    <t>2020/5/16 18</t>
-  </si>
-  <si>
-    <t>2020/5/16 19</t>
-  </si>
-  <si>
-    <t>2020/5/16 20</t>
-  </si>
-  <si>
-    <t>2020/5/18 4</t>
-  </si>
-  <si>
-    <t>2020/6/3 3</t>
-  </si>
-  <si>
-    <t>2020/6/7 23</t>
-  </si>
-  <si>
-    <t>2020/6/8 6</t>
-  </si>
-  <si>
-    <t>2020/6/16 22</t>
-  </si>
-  <si>
-    <t>2020/6/16 23</t>
-  </si>
-  <si>
-    <t>2020/6/17 0</t>
-  </si>
-  <si>
-    <t>2020/6/17 1</t>
-  </si>
-  <si>
-    <t>2020/6/17 2</t>
-  </si>
-  <si>
-    <t>2020/6/17 3</t>
-  </si>
-  <si>
-    <t>2020/6/17 4</t>
-  </si>
-  <si>
-    <t>2020/6/17 5</t>
-  </si>
-  <si>
-    <t>2020/6/17 6</t>
-  </si>
-  <si>
-    <t>2020/6/17 7</t>
-  </si>
-  <si>
-    <t>2020/6/17 8</t>
-  </si>
-  <si>
-    <t>2020/6/17 9</t>
-  </si>
-  <si>
-    <t>2020/6/17 10</t>
-  </si>
-  <si>
-    <t>2020/6/28 18</t>
-  </si>
-  <si>
-    <t>2020/6/28 19</t>
-  </si>
-  <si>
-    <t>2020/6/28 20</t>
-  </si>
-  <si>
-    <t>2020/6/28 21</t>
-  </si>
-  <si>
-    <t>2020/7/19 15</t>
-  </si>
-  <si>
-    <t>2020/7/19 16</t>
-  </si>
-  <si>
-    <t>2020/7/19 17</t>
-  </si>
-  <si>
-    <t>2020/7/19 18</t>
-  </si>
-  <si>
-    <t>2020/7/19 19</t>
-  </si>
-  <si>
-    <t>2020/7/19 20</t>
-  </si>
-  <si>
-    <t>2020/7/19 21</t>
-  </si>
-  <si>
-    <t>2020/7/20 14</t>
-  </si>
-  <si>
-    <t>2020/8/16 6</t>
-  </si>
-  <si>
-    <t>2020/8/16 7</t>
-  </si>
-  <si>
-    <t>2020/8/17 21</t>
-  </si>
-  <si>
-    <t>2020/8/17 22</t>
-  </si>
-  <si>
-    <t>2020/8/20 19</t>
-  </si>
-  <si>
-    <t>2020/8/20 20</t>
-  </si>
-  <si>
-    <t>2020/11/1 16</t>
-  </si>
-  <si>
-    <t>2020/12/9 14</t>
-  </si>
-  <si>
-    <t>2020/12/9 16</t>
-  </si>
-  <si>
-    <t>2020/12/9 17</t>
-  </si>
-  <si>
-    <t>2020/12/9 18</t>
-  </si>
-  <si>
-    <t>2020/12/9 19</t>
-  </si>
-  <si>
-    <t>2020/12/9 20</t>
-  </si>
-  <si>
-    <t>2020/12/9 21</t>
-  </si>
-  <si>
-    <t>2020/12/10 15</t>
-  </si>
-  <si>
-    <t>2020/12/15 10</t>
-  </si>
-  <si>
-    <t>2020/12/19 14</t>
-  </si>
-  <si>
-    <t>2020/12/19 16</t>
-  </si>
-  <si>
-    <t>2020/12/19 17</t>
-  </si>
-  <si>
-    <t>2020/12/19 18</t>
-  </si>
-  <si>
-    <t>2020/12/19 19</t>
-  </si>
-  <si>
-    <t>2020/12/19 20</t>
-  </si>
-  <si>
-    <t>2020/12/19 21</t>
-  </si>
-  <si>
-    <t>2020/12/19 22</t>
-  </si>
-  <si>
-    <t>2020/12/19 23</t>
-  </si>
-  <si>
-    <t>2020/12/20 15</t>
-  </si>
-  <si>
-    <t>2020/12/29 14</t>
-  </si>
-  <si>
-    <t>2020/12/30 15</t>
-  </si>
-  <si>
-    <t>2020/12/31 10</t>
-  </si>
-  <si>
-    <t>2020/12/31 12</t>
-  </si>
-  <si>
-    <t>2020/12/31 13</t>
-  </si>
-  <si>
-    <t>2020/12/31 14</t>
-  </si>
-  <si>
-    <t>2020/12/31 16</t>
-  </si>
-  <si>
-    <t>2020/12/31 17</t>
-  </si>
-  <si>
-    <t>2020/12/31 18</t>
-  </si>
-  <si>
-    <t>2020/12/31 19</t>
-  </si>
-  <si>
-    <t>2020/12/31 20</t>
-  </si>
-  <si>
-    <t>2020/12/31 21</t>
-  </si>
-  <si>
-    <t>2020/12/31 22</t>
-  </si>
-  <si>
-    <t>2020/12/31 23</t>
-  </si>
-  <si>
-    <t>2021/1/14 1</t>
-  </si>
-  <si>
-    <t>2021/1/14 5</t>
-  </si>
-  <si>
-    <t>2021/1/19 21</t>
-  </si>
-  <si>
-    <t>2021/1/20 1</t>
-  </si>
-  <si>
-    <t>2021/1/20 2</t>
-  </si>
-  <si>
-    <t>2021/1/20 3</t>
-  </si>
-  <si>
-    <t>2021/1/20 4</t>
-  </si>
-  <si>
-    <t>2021/1/20 5</t>
-  </si>
-  <si>
-    <t>2021/1/20 7</t>
-  </si>
-  <si>
-    <t>2021/1/20 8</t>
-  </si>
-  <si>
-    <t>2021/1/20 9</t>
-  </si>
-  <si>
-    <t>2021/1/20 10</t>
-  </si>
-  <si>
-    <t>2021/1/20 11</t>
-  </si>
-  <si>
-    <t>2021/1/20 12</t>
-  </si>
-  <si>
-    <t>2021/1/20 13</t>
-  </si>
-  <si>
-    <t>2021/1/20 14</t>
-  </si>
-  <si>
-    <t>2021/1/20 16</t>
-  </si>
-  <si>
-    <t>2021/1/20 17</t>
-  </si>
-  <si>
-    <t>2021/1/20 19</t>
-  </si>
-  <si>
-    <t>2021/1/20 20</t>
-  </si>
-  <si>
-    <t>2021/1/20 21</t>
-  </si>
-  <si>
-    <t>2021/1/20 22</t>
-  </si>
-  <si>
-    <t>2021/1/20 23</t>
-  </si>
-  <si>
-    <t>2021/1/21 0</t>
-  </si>
-  <si>
-    <t>2021/1/21 1</t>
-  </si>
-  <si>
-    <t>2021/1/21 2</t>
-  </si>
-  <si>
-    <t>2021/1/21 3</t>
-  </si>
-  <si>
-    <t>2021/1/21 4</t>
-  </si>
-  <si>
-    <t>2021/1/21 5</t>
-  </si>
-  <si>
-    <t>2021/1/21 6</t>
-  </si>
-  <si>
-    <t>2021/1/21 7</t>
-  </si>
-  <si>
-    <t>2021/1/21 8</t>
-  </si>
-  <si>
-    <t>2021/1/21 9</t>
-  </si>
-  <si>
-    <t>2021/1/21 10</t>
-  </si>
-  <si>
-    <t>2021/1/21 11</t>
-  </si>
-  <si>
-    <t>2021/1/21 12</t>
-  </si>
-  <si>
-    <t>2021/1/21 13</t>
-  </si>
-  <si>
-    <t>2021/1/21 14</t>
-  </si>
-  <si>
-    <t>2021/1/21 15</t>
-  </si>
-  <si>
-    <t>2021/1/21 16</t>
-  </si>
-  <si>
-    <t>2021/1/21 17</t>
-  </si>
-  <si>
-    <t>2021/1/21 18</t>
-  </si>
-  <si>
-    <t>2021/1/21 19</t>
-  </si>
-  <si>
-    <t>2021/1/21 20</t>
-  </si>
-  <si>
-    <t>2021/1/21 21</t>
-  </si>
-  <si>
-    <t>2021/1/21 22</t>
-  </si>
-  <si>
-    <t>2021/1/21 23</t>
-  </si>
-  <si>
-    <t>2021/1/22 0</t>
-  </si>
-  <si>
-    <t>2021/1/22 1</t>
-  </si>
-  <si>
-    <t>2021/1/22 2</t>
-  </si>
-  <si>
-    <t>2021/1/22 3</t>
-  </si>
-  <si>
-    <t>2021/1/22 4</t>
-  </si>
-  <si>
-    <t>2021/1/22 5</t>
-  </si>
-  <si>
-    <t>2021/1/22 6</t>
-  </si>
-  <si>
-    <t>2021/1/22 7</t>
-  </si>
-  <si>
-    <t>2021/1/22 8</t>
-  </si>
-  <si>
-    <t>2021/1/22 9</t>
-  </si>
-  <si>
-    <t>2021/1/22 10</t>
-  </si>
-  <si>
-    <t>2021/1/22 11</t>
-  </si>
-  <si>
-    <t>2021/1/22 12</t>
-  </si>
-  <si>
-    <t>2021/1/22 13</t>
-  </si>
-  <si>
-    <t>2021/1/22 14</t>
-  </si>
-  <si>
-    <t>2021/1/22 15</t>
-  </si>
-  <si>
-    <t>2021/1/22 16</t>
-  </si>
-  <si>
-    <t>2021/1/22 17</t>
-  </si>
-  <si>
-    <t>2021/1/22 18</t>
-  </si>
-  <si>
-    <t>2021/1/22 19</t>
-  </si>
-  <si>
-    <t>2021/1/22 20</t>
-  </si>
-  <si>
-    <t>2021/1/22 21</t>
-  </si>
-  <si>
-    <t>2021/1/22 22</t>
-  </si>
-  <si>
-    <t>2021/1/22 23</t>
-  </si>
-  <si>
-    <t>2021/1/23 0</t>
-  </si>
-  <si>
-    <t>2021/1/23 1</t>
-  </si>
-  <si>
-    <t>2021/1/23 2</t>
-  </si>
-  <si>
-    <t>2021/1/23 3</t>
-  </si>
-  <si>
-    <t>2021/1/23 4</t>
-  </si>
-  <si>
-    <t>2021/1/23 5</t>
-  </si>
-  <si>
-    <t>2021/1/23 6</t>
-  </si>
-  <si>
-    <t>2021/1/23 7</t>
-  </si>
-  <si>
-    <t>2021/1/23 8</t>
-  </si>
-  <si>
-    <t>2021/1/23 9</t>
-  </si>
-  <si>
-    <t>2021/1/23 10</t>
-  </si>
-  <si>
-    <t>2021/1/23 11</t>
-  </si>
-  <si>
-    <t>2021/1/23 13</t>
-  </si>
-  <si>
-    <t>2021/1/23 14</t>
-  </si>
-  <si>
-    <t>2021/1/23 15</t>
-  </si>
-  <si>
-    <t>2021/1/23 16</t>
-  </si>
-  <si>
-    <t>2021/1/23 17</t>
-  </si>
-  <si>
-    <t>2021/1/23 18</t>
-  </si>
-  <si>
-    <t>2021/1/23 19</t>
-  </si>
-  <si>
-    <t>2021/1/23 20</t>
-  </si>
-  <si>
-    <t>2021/1/23 21</t>
-  </si>
-  <si>
-    <t>2021/1/23 22</t>
-  </si>
-  <si>
-    <t>2021/1/23 23</t>
-  </si>
-  <si>
-    <t>2021/1/24 0</t>
-  </si>
-  <si>
-    <t>2021/1/24 1</t>
-  </si>
-  <si>
-    <t>2021/1/24 2</t>
-  </si>
-  <si>
-    <t>2021/1/24 3</t>
-  </si>
-  <si>
-    <t>2021/1/24 4</t>
-  </si>
-  <si>
-    <t>2021/1/24 5</t>
-  </si>
-  <si>
-    <t>2021/1/24 6</t>
-  </si>
-  <si>
-    <t>2021/1/24 7</t>
-  </si>
-  <si>
-    <t>2021/1/24 8</t>
-  </si>
-  <si>
-    <t>2021/1/24 9</t>
-  </si>
-  <si>
-    <t>2021/1/24 10</t>
-  </si>
-  <si>
-    <t>2021/1/24 11</t>
-  </si>
-  <si>
-    <t>2021/1/24 12</t>
-  </si>
-  <si>
-    <t>2021/1/24 13</t>
-  </si>
-  <si>
-    <t>2021/1/24 15</t>
-  </si>
-  <si>
-    <t>2021/1/24 16</t>
-  </si>
-  <si>
-    <t>2021/1/24 17</t>
-  </si>
-  <si>
-    <t>2021/1/24 18</t>
-  </si>
-  <si>
-    <t>2021/1/24 19</t>
-  </si>
-  <si>
-    <t>2021/1/24 20</t>
-  </si>
-  <si>
-    <t>2021/1/24 21</t>
-  </si>
-  <si>
-    <t>2021/1/24 22</t>
-  </si>
-  <si>
-    <t>2021/1/24 23</t>
-  </si>
-  <si>
-    <t>2021/1/25 0</t>
-  </si>
-  <si>
-    <t>2021/1/25 1</t>
-  </si>
-  <si>
-    <t>2021/1/25 2</t>
-  </si>
-  <si>
-    <t>2021/1/25 3</t>
-  </si>
-  <si>
-    <t>2021/1/25 4</t>
-  </si>
-  <si>
-    <t>2021/1/25 5</t>
-  </si>
-  <si>
-    <t>2021/1/25 6</t>
-  </si>
-  <si>
-    <t>2021/1/25 7</t>
-  </si>
-  <si>
-    <t>2021/1/25 8</t>
-  </si>
-  <si>
-    <t>2021/1/25 9</t>
-  </si>
-  <si>
-    <t>2021/1/25 10</t>
-  </si>
-  <si>
-    <t>2021/1/25 11</t>
-  </si>
-  <si>
-    <t>2021/1/25 12</t>
-  </si>
-  <si>
-    <t>2021/1/25 13</t>
-  </si>
-  <si>
-    <t>2021/1/25 14</t>
-  </si>
-  <si>
-    <t>2021/1/25 15</t>
-  </si>
-  <si>
-    <t>2021/1/25 16</t>
-  </si>
-  <si>
-    <t>2021/1/25 17</t>
-  </si>
-  <si>
-    <t>2021/1/25 18</t>
-  </si>
-  <si>
-    <t>2021/1/25 19</t>
-  </si>
-  <si>
-    <t>2021/1/25 20</t>
-  </si>
-  <si>
-    <t>2021/1/25 21</t>
-  </si>
-  <si>
-    <t>2021/1/25 22</t>
-  </si>
-  <si>
-    <t>2021/1/25 23</t>
-  </si>
-  <si>
-    <t>2021/1/26 0</t>
-  </si>
-  <si>
-    <t>2021/1/26 15</t>
-  </si>
-  <si>
-    <t>2021/2/2 0</t>
-  </si>
-  <si>
-    <t>2021/2/3 4</t>
-  </si>
-  <si>
-    <t>2021/2/3 5</t>
-  </si>
-  <si>
-    <t>2021/2/3 6</t>
-  </si>
-  <si>
-    <t>2021/2/3 7</t>
-  </si>
-  <si>
-    <t>2021/2/3 8</t>
-  </si>
-  <si>
-    <t>2021/2/3 10</t>
-  </si>
-  <si>
-    <t>2021/2/3 12</t>
-  </si>
-  <si>
-    <t>2021/2/3 13</t>
-  </si>
-  <si>
-    <t>2021/2/3 14</t>
-  </si>
-  <si>
-    <t>2021/2/3 16</t>
-  </si>
-  <si>
-    <t>2021/2/3 17</t>
-  </si>
-  <si>
-    <t>2021/2/3 18</t>
-  </si>
-  <si>
-    <t>2021/2/3 19</t>
-  </si>
-  <si>
-    <t>2021/2/3 20</t>
-  </si>
-  <si>
-    <t>2021/2/3 21</t>
-  </si>
-  <si>
-    <t>2021/2/3 22</t>
-  </si>
-  <si>
-    <t>2021/2/3 23</t>
-  </si>
-  <si>
-    <t>2021/2/4 0</t>
-  </si>
-  <si>
-    <t>2021/2/4 1</t>
-  </si>
-  <si>
-    <t>2021/2/4 2</t>
-  </si>
-  <si>
-    <t>2021/2/4 3</t>
-  </si>
-  <si>
-    <t>2021/2/4 4</t>
-  </si>
-  <si>
-    <t>2021/2/4 5</t>
-  </si>
-  <si>
-    <t>2021/2/4 6</t>
-  </si>
-  <si>
-    <t>2021/2/4 7</t>
-  </si>
-  <si>
-    <t>2021/2/4 15</t>
-  </si>
-  <si>
-    <t>2021/3/14 17</t>
+    <t>2020/5/3 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 7:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 8:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 9:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 10:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 11:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 12:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 13:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 15:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 16:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 17:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 18:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 19:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 21:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 22:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/3 23:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/4 0:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/4 1:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/4 2:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/4 3:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/4 14:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/8 8:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/8 9:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/8 10:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/8 11:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/8 12:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/8 13:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/8 15:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/8 16:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/8 17:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/8 18:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/8 19:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/8 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/9 14:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/11 11:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/11 12:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/11 13:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/11 15:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/11 16:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/11 17:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/11 18:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/11 19:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/11 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/11 21:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/12 14:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/12 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/15 18:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/15 19:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/16 16:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/16 17:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/16 18:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/16 19:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/16 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/5/18 4:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/3 3:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/7 23:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/8 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/16 22:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/16 23:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/17 0:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/17 1:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/17 2:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/17 3:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/17 4:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/17 5:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/17 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/17 7:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/17 8:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/17 9:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/17 10:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/28 18:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/28 19:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/28 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/6/28 21:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/19 15:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/19 16:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/19 17:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/19 18:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/19 19:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/19 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/19 21:00:00</t>
+  </si>
+  <si>
+    <t>2020/7/20 14:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/16 6:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/16 7:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/17 21:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/17 22:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/20 19:00:00</t>
+  </si>
+  <si>
+    <t>2020/8/20 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/11/1 16:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/9 14:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/9 16:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/9 17:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/9 18:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/9 19:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/9 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/9 21:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/10 15:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/15 10:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/19 14:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/19 16:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/19 17:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/19 18:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/19 19:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/19 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/19 21:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/19 22:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/19 23:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/20 15:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/29 14:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/30 15:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/31 10:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/31 12:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/31 13:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/31 14:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/31 16:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/31 17:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/31 18:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/31 19:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/31 20:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/31 21:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/31 22:00:00</t>
+  </si>
+  <si>
+    <t>2020/12/31 23:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/14 1:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/14 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/19 21:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 1:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 2:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 3:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 4:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 10:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 11:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 12:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 13:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 14:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 16:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 17:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 19:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 20:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 21:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 22:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/20 23:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 0:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 1:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 2:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 3:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 4:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 10:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 11:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 12:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 13:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 14:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 15:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 16:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 17:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 18:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 19:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 20:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 21:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 22:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/21 23:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 0:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 1:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 2:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 3:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 4:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 10:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 11:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 12:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 13:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 14:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 15:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 16:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 17:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 18:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 19:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 20:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 21:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 22:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/22 23:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 0:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 1:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 2:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 3:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 4:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 10:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 11:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 13:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 14:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 15:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 16:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 17:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 18:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 19:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 20:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 21:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 22:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/23 23:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 0:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 1:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 2:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 3:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 4:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 10:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 11:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 12:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 13:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 15:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 16:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 17:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 18:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 19:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 20:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 21:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 22:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/24 23:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 0:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 1:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 2:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 3:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 4:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 9:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 10:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 11:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 12:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 13:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 14:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 15:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 16:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 17:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 18:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 19:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 20:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 21:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 22:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/25 23:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/26 0:00:00</t>
+  </si>
+  <si>
+    <t>2021/1/26 15:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/2 0:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 4:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 8:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 10:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 12:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 13:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 14:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 16:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 17:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 18:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 19:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 20:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 21:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 22:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/3 23:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/4 0:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/4 1:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/4 2:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/4 3:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/4 4:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/4 5:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/4 6:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/4 7:00:00</t>
+  </si>
+  <si>
+    <t>2021/2/4 15:00:00</t>
+  </si>
+  <si>
+    <t>2021/3/14 17:00:00</t>
   </si>
 </sst>
 </file>
